--- a/CashFlow/GNRC_cashflow.xlsx
+++ b/CashFlow/GNRC_cashflow.xlsx
@@ -76,8 +76,8 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2325000000.0</v>
+        <v>-75671000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2240000000.0</v>
+        <v>-77983000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1568166000.0</v>
+        <v>-83438000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1083513000.0</v>
+        <v>-55803000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>560000000.0</v>
+        <v>-48145000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-41644000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>109992000.0</v>
+        <v>1221000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>66040000.0</v>
+        <v>1100000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>16323000.0</v>
+        <v>774699000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-11908000.0</v>
+        <v>508079000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>12817000.0</v>
+        <v>267000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-19910000.0</v>
